--- a/matrice d'implication.xlsx
+++ b/matrice d'implication.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52368FC0-6A89-4F15-8C5C-583261FBD577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2CE8BB-6A08-4F15-9DDB-9A9538448062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>projet :</t>
   </si>
@@ -63,6 +63,33 @@
   </si>
   <si>
     <t>Grenet Rebecca</t>
+  </si>
+  <si>
+    <t>Conception des piles de navigation</t>
+  </si>
+  <si>
+    <t>Conception des formulaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création des requêtes de récupération des données </t>
+  </si>
+  <si>
+    <t>Affichage des données des cinémas</t>
+  </si>
+  <si>
+    <t>Affichage des données des films</t>
+  </si>
+  <si>
+    <t>Affichage des données des séances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création des requêtes pour la modification des données </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création des requêtes pour la suppression des données </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rédaction du rapport </t>
   </si>
 </sst>
 </file>
@@ -110,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -213,19 +240,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -246,9 +260,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -259,37 +291,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -326,15 +327,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -352,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,19 +355,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -384,9 +370,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,16 +379,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -414,31 +403,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E42"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,52 +724,52 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="28"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="2:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -791,11 +777,13 @@
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="14">
         <v>0.5</v>
       </c>
     </row>
@@ -804,278 +792,134 @@
         <f>1+B7</f>
         <v>2</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
-        <f t="shared" ref="B9:B34" si="0">1+B8</f>
+        <f t="shared" ref="B9:B14" si="0">1+B8</f>
         <v>3</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15"/>
+      <c r="C10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
+      <c r="C11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
-        <f t="shared" si="0"/>
+        <f>1+B14</f>
         <v>9</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15"/>
+      <c r="C15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="2">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="3"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
